--- a/Testing/Resources/case02.xlsx
+++ b/Testing/Resources/case02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Source\Repos\Excel2SqlServer.Library\Testing\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5644BA23-B197-4151-B5A3-6E9B49F33D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABC27C7-7C67-4A91-98E5-EDD7802999E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4665" yWindow="4215" windowWidth="22305" windowHeight="11385" xr2:uid="{500A55CE-ACA0-42C3-8418-9505E0DB0554}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Last Name</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t xml:space="preserve">454 Abulara Rd </t>
+  </si>
+  <si>
+    <t> 360 Huntington Ave</t>
+  </si>
+  <si>
+    <t>Yodalay</t>
+  </si>
+  <si>
+    <t>Mishman</t>
   </si>
 </sst>
 </file>
@@ -92,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,12 +109,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C33E52E-D2CD-4A20-9A3A-A8C35FA9D342}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +503,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
